--- a/evaluation/usecase 2/Run template2.xlsx
+++ b/evaluation/usecase 2/Run template2.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tensor" sheetId="1" r:id="rId1"/>
     <sheet name="nuc-log" sheetId="4" r:id="rId2"/>
     <sheet name="pi-log" sheetId="5" r:id="rId3"/>
+    <sheet name="results" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="1465">
   <si>
     <t>nuc</t>
   </si>
@@ -4395,6 +4396,36 @@
   </si>
   <si>
     <t>2017-05-29 17:52:06.500  INFO 6568 --- [nio-8080-exec-3] com.middleware.domain.Publisher          : Message Published 213511e1-e1b5-4bc1-a52e-38c3a8d75451</t>
+  </si>
+  <si>
+    <t>tensor</t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
+    <t>pc-&gt; nuc</t>
+  </si>
+  <si>
+    <t>pc-&gt;pi</t>
+  </si>
+  <si>
+    <t>pc-&gt;disconnected</t>
+  </si>
+  <si>
+    <t>312.072s</t>
+  </si>
+  <si>
+    <t>pi -&gt; nuc</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG </t>
   </si>
 </sst>
 </file>
@@ -4410,12 +4441,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4430,7 +4473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4439,6 +4482,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4716,10 +4766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4864,7 +4914,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4882,7 +4932,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5034,7 +5084,7 @@
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5206,46 +5256,6 @@
     <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5255,10 +5265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B709"/>
+  <dimension ref="B1:B701"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B224" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5552,8 +5562,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="58" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5578,7 +5588,7 @@
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5593,7 +5603,7 @@
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5698,7 +5708,7 @@
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5863,7 +5873,7 @@
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
+      <c r="B120" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6312,8 +6322,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B210" t="s">
+    <row r="210" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B210" s="4" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6393,7 +6403,7 @@
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
+      <c r="B226" s="4" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6408,17 +6418,17 @@
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B229" t="s">
+      <c r="B229" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B230" t="s">
+      <c r="B230" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B231" t="s">
+      <c r="B231" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6428,7 +6438,7 @@
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B233" t="s">
+      <c r="B233" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6458,7 +6468,7 @@
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B239" t="s">
+      <c r="B239" s="4" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6593,7 +6603,7 @@
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
+      <c r="B266" s="4" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6608,7 +6618,7 @@
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B269" t="s">
+      <c r="B269" s="4" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7108,7 +7118,7 @@
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B369" t="s">
+      <c r="B369" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7442,8 +7452,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B436" t="s">
+    <row r="436" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B436" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8028,7 +8038,7 @@
       </c>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B553" t="s">
+      <c r="B553" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8063,12 +8073,12 @@
       </c>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B560" t="s">
+      <c r="B560" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B561" t="s">
+      <c r="B561" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8077,8 +8087,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B563" t="s">
+    <row r="563" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B563" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8118,7 +8128,7 @@
       </c>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B571" t="s">
+      <c r="B571" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8242,13 +8252,13 @@
         <v>611</v>
       </c>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B596" t="s">
+    <row r="596" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B596" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B597" t="s">
+    <row r="597" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B597" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8770,46 +8780,6 @@
     <row r="701" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B701" t="s">
         <v>709</v>
-      </c>
-    </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B702" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B703" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="704" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B704" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B705" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B706" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B707" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B708" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B709" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -8819,9 +8789,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A745"/>
+  <dimension ref="A1:M745"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="T241" sqref="T241"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8950,8 +8922,8 @@
         <v>734</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>735</v>
       </c>
     </row>
@@ -8960,8 +8932,8 @@
         <v>736</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>737</v>
       </c>
     </row>
@@ -8980,87 +8952,98 @@
         <v>740</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>757</v>
       </c>
@@ -9145,242 +9128,278 @@
         <v>773</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>821</v>
       </c>
@@ -9465,82 +9484,94 @@
         <v>837</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>853</v>
       </c>
@@ -9945,162 +9976,184 @@
         <v>933</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    <row r="238" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+    <row r="239" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="7" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="4"/>
+      <c r="K241" s="4"/>
+      <c r="L241" s="4"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+    <row r="247" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    <row r="250" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row r="253" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>965</v>
       </c>
@@ -10880,8 +10933,8 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
+    <row r="412" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="8" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -10895,8 +10948,8 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
+    <row r="415" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="8" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -11135,8 +11188,8 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
+    <row r="463" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="8" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -11150,8 +11203,8 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
+    <row r="466" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="8" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -12365,8 +12418,8 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A709" t="s">
+    <row r="709" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A709" s="8" t="s">
         <v>1418</v>
       </c>
     </row>
@@ -12380,8 +12433,8 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A712" t="s">
+    <row r="712" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A712" s="8" t="s">
         <v>1421</v>
       </c>
     </row>
@@ -12395,8 +12448,8 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A715" t="s">
+    <row r="715" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A715" s="8" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -12410,8 +12463,8 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A718" t="s">
+    <row r="718" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A718" s="8" t="s">
         <v>1427</v>
       </c>
     </row>
@@ -12425,8 +12478,8 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A721" t="s">
+    <row r="721" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A721" s="8" t="s">
         <v>1430</v>
       </c>
     </row>
@@ -12548,6 +12601,289 @@
     <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>1454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="19" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B2" s="5">
+        <v>39.414000000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>53.719000000000001</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.1629999999999998</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.4009999999999998</v>
+      </c>
+      <c r="D3" s="5">
+        <v>215.65700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>284.95699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>216.40899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>180.41499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>228.81100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>228.32900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>220.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
+        <v>214.21299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5">
+        <v>111.267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5">
+        <v>104.166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5">
+        <v>101.188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5">
+        <v>179.82499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5">
+        <v>178.946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5">
+        <v>166.999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B21" s="5">
+        <f>AVERAGE(B8:B20)</f>
+        <v>185.81807692307692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B22" s="5">
+        <f>STDEV(B8:B20)</f>
+        <v>54.96648696321175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5">
+        <v>59.530999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5">
+        <v>51.51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="5">
+        <v>51.826000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5">
+        <v>213.21199999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5">
+        <v>67.855999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5">
+        <v>67.673000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>7</v>
+      </c>
+      <c r="B31" s="5">
+        <v>68.188000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>8</v>
+      </c>
+      <c r="B32" s="5">
+        <v>68.102999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5">
+        <v>64.292000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5">
+        <v>192.47900000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B35" s="5">
+        <f>AVERAGE(B25:B34)</f>
+        <v>90.466999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B36" s="5">
+        <f>STDEV(B25:B34)</f>
+        <v>59.770905886095143</v>
       </c>
     </row>
   </sheetData>
